--- a/Fases_de_desarrollo/04-Transicion/01- Pruebas/T01 - OSLO - Casos de Pruebas Integracion Testify.xlsx
+++ b/Fases_de_desarrollo/04-Transicion/01- Pruebas/T01 - OSLO - Casos de Pruebas Integracion Testify.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e1101\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Proyecto\LDS\Testify\Fases_de_desarrollo\04-Transicion\01- Pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4EF9FE-09DE-4EF4-ACF2-3A931423EB02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3CEDBD-1FFA-44E8-AF5E-579A341C2505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" tabRatio="692" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" tabRatio="692" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Portada" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="196">
   <si>
     <t xml:space="preserve">id </t>
   </si>
@@ -309,12 +309,6 @@
     <t>Crear Iteraciones Solo Nombre</t>
   </si>
   <si>
-    <t>Se comprobará el ingreso de Nombre Iteración , sin Fecha Inicio y sin Fecha Final son incorrectas para seguir con la ejecución del proceso, hasta obtener como respuesta el mensaje de error correspondiente a la acción.</t>
-  </si>
-  <si>
-    <t>El resultado que se espera es que salga un mensaje de aviso que todos los datos son obligatorios y el botón Crear iteración deshabilitado.</t>
-  </si>
-  <si>
     <t>Crear Iteraciones Fechas</t>
   </si>
   <si>
@@ -330,9 +324,6 @@
     <t>Se comprobará el ingreso de Nombre Iteración, repetido en un mismo proyecto es incorrecto para seguir con la ejecución del proceso, hasta obtener como respuesta el mensaje de error correspondiente a la acción.</t>
   </si>
   <si>
-    <t>El resultado que se espera es que salga un mensaje de error que diga que el nombre de la iteración ya existe y el botón Crear iteración deshabilitado.</t>
-  </si>
-  <si>
     <t>Modificar Iteraciones</t>
   </si>
   <si>
@@ -340,15 +331,6 @@
   </si>
   <si>
     <t>El resultado que se espera es que se modifique en nombre de la iteración .</t>
-  </si>
-  <si>
-    <t>CP17-08</t>
-  </si>
-  <si>
-    <t>CP17-09</t>
-  </si>
-  <si>
-    <t>CP17-10</t>
   </si>
   <si>
     <t>Modificar Iteraciones Fechas</t>
@@ -485,10 +467,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">*Ingresar al sistema      *Ingresar al menú inicio                                   *Se selecciona un proyecto      *Se selecciona el botón nueva iteración                                     *Se ingresa solo el nombre de la iteración                                     *Mensaje: "El nombre es obligatorio"
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">*Ingresar al sistema      *Ingresar al menú inicio                                   *Se selecciona un proyecto      *Se selecciona el botón nueva iteración                                     *Se ingresa el nombre de la iteración y una fecha de fin menor a la fecha de inicio                                     *Mensaje: "La fecha de fin no puede ser anterior a la de inicio"
 </t>
   </si>
@@ -615,6 +593,73 @@
   <si>
     <t>*Ingresar al Sistema
 *Ingresar al Menú Inicio      *Presionar el botón "Eliminar categoría" correspondiente al inicio y fin                   *Mensaje de confirmación " con botones aceptar-cancelar"                         *Presionar botón aceptar                              *Se actualiza la BD y el listado de Categorías</t>
+  </si>
+  <si>
+    <t>CP16-01</t>
+  </si>
+  <si>
+    <t>CP16-02</t>
+  </si>
+  <si>
+    <t>CP16-03</t>
+  </si>
+  <si>
+    <t>CP16-04</t>
+  </si>
+  <si>
+    <t>CP16-05</t>
+  </si>
+  <si>
+    <t>CP16-06</t>
+  </si>
+  <si>
+    <t>CP16-07</t>
+  </si>
+  <si>
+    <t>CP16-08</t>
+  </si>
+  <si>
+    <t>CP12-01</t>
+  </si>
+  <si>
+    <t>CP12-02</t>
+  </si>
+  <si>
+    <t>CP12-03</t>
+  </si>
+  <si>
+    <t>CP12-04</t>
+  </si>
+  <si>
+    <t>CP12-05</t>
+  </si>
+  <si>
+    <t>CP12-06</t>
+  </si>
+  <si>
+    <t>CP12-07</t>
+  </si>
+  <si>
+    <t>CP12-08</t>
+  </si>
+  <si>
+    <t>CP12-09</t>
+  </si>
+  <si>
+    <t>CP12-10</t>
+  </si>
+  <si>
+    <t>Se comprobará el ingreso de Nombre Iteración , sin Fecha Inicio y sin Fecha Final para seguir con la ejecución del proceso, hasta obtener como resultado la deshabilitacion del botón "crear iteración"</t>
+  </si>
+  <si>
+    <t>El resultado que se espera es que se deshabilite el botón de "crear iteración"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Ingresar al sistema      *Ingresar al menú inicio                                   *Se selecciona un proyecto      *Se selecciona el botón nueva iteración                                     *Se ingresa solo el nombre de la iteración                                     *Se deshabilita el boton "crear iteración"
+</t>
+  </si>
+  <si>
+    <t>El resultado que se espera es que salga un mensaje de error que diga que el nombre de la iteración ya existe.</t>
   </si>
 </sst>
 </file>
@@ -2806,8 +2851,8 @@
   </sheetPr>
   <dimension ref="B1:M994"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="J13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2831,7 +2876,7 @@
     <row r="1" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D1" s="5"/>
       <c r="E1" s="5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -2876,7 +2921,7 @@
     </row>
     <row r="4" spans="2:13" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>182</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>80</v>
@@ -2894,7 +2939,7 @@
         <v>54</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>18</v>
@@ -2914,7 +2959,7 @@
     </row>
     <row r="5" spans="2:13" ht="105" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>183</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>82</v>
@@ -2932,7 +2977,7 @@
         <v>54</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>18</v>
@@ -2952,7 +2997,7 @@
     </row>
     <row r="6" spans="2:13" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>184</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>85</v>
@@ -2970,7 +3015,7 @@
         <v>54</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>18</v>
@@ -2990,13 +3035,13 @@
     </row>
     <row r="7" spans="2:13" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>185</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>88</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>89</v>
+        <v>192</v>
       </c>
       <c r="E7" s="3">
         <v>45736</v>
@@ -3008,7 +3053,7 @@
         <v>54</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>146</v>
+        <v>194</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>18</v>
@@ -3017,7 +3062,7 @@
         <v>19</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>90</v>
+        <v>193</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>35</v>
@@ -3028,13 +3073,13 @@
     </row>
     <row r="8" spans="2:13" ht="183" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>65</v>
+        <v>186</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E8" s="3">
         <v>45736</v>
@@ -3046,7 +3091,7 @@
         <v>54</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="I8" s="15" t="s">
         <v>18</v>
@@ -3055,7 +3100,7 @@
         <v>19</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>35</v>
@@ -3066,13 +3111,13 @@
     </row>
     <row r="9" spans="2:13" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>66</v>
+        <v>187</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E9" s="3">
         <v>45736</v>
@@ -3084,7 +3129,7 @@
         <v>54</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>18</v>
@@ -3093,7 +3138,7 @@
         <v>19</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>96</v>
+        <v>195</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>35</v>
@@ -3104,13 +3149,13 @@
     </row>
     <row r="10" spans="2:13" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>67</v>
+        <v>188</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E10" s="3">
         <v>45736</v>
@@ -3122,7 +3167,7 @@
         <v>54</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>18</v>
@@ -3131,7 +3176,7 @@
         <v>19</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>35</v>
@@ -3142,13 +3187,13 @@
     </row>
     <row r="11" spans="2:13" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>100</v>
+        <v>189</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E11" s="3">
         <v>45736</v>
@@ -3160,7 +3205,7 @@
         <v>54</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>18</v>
@@ -3169,7 +3214,7 @@
         <v>19</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>35</v>
@@ -3180,13 +3225,13 @@
     </row>
     <row r="12" spans="2:13" ht="186" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="E12" s="3">
         <v>45736</v>
@@ -3198,7 +3243,7 @@
         <v>54</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>18</v>
@@ -3207,24 +3252,24 @@
         <v>19</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="M12" s="13" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="186" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>102</v>
+        <v>191</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E13" s="3">
         <v>45736</v>
@@ -3236,7 +3281,7 @@
         <v>54</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>18</v>
@@ -3245,7 +3290,7 @@
         <v>19</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>35</v>
@@ -3269,14 +3314,14 @@
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="2:13" ht="183" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="E15" s="3">
         <v>45736</v>
@@ -3285,10 +3330,10 @@
         <v>45737</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>18</v>
@@ -3297,7 +3342,7 @@
         <v>19</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>35</v>
@@ -4325,8 +4370,8 @@
   </sheetPr>
   <dimension ref="B1:M994"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4350,7 +4395,7 @@
     <row r="1" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D1" s="5"/>
       <c r="E1" s="5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -4395,13 +4440,13 @@
     </row>
     <row r="4" spans="2:13" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>174</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E4" s="3">
         <v>45735</v>
@@ -4413,7 +4458,7 @@
         <v>54</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="I4" s="15" t="s">
         <v>18</v>
@@ -4422,7 +4467,7 @@
         <v>19</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>35</v>
@@ -4433,13 +4478,13 @@
     </row>
     <row r="5" spans="2:13" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>175</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E5" s="3">
         <v>45735</v>
@@ -4451,7 +4496,7 @@
         <v>54</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>18</v>
@@ -4460,7 +4505,7 @@
         <v>19</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>35</v>
@@ -4471,13 +4516,13 @@
     </row>
     <row r="6" spans="2:13" ht="75" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>176</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E6" s="3">
         <v>45735</v>
@@ -4489,7 +4534,7 @@
         <v>54</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="I6" s="15" t="s">
         <v>18</v>
@@ -4509,13 +4554,13 @@
     </row>
     <row r="7" spans="2:13" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>177</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="E7" s="3">
         <v>45735</v>
@@ -4527,7 +4572,7 @@
         <v>54</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="I7" s="15" t="s">
         <v>18</v>
@@ -4536,7 +4581,7 @@
         <v>19</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>35</v>
@@ -4547,13 +4592,13 @@
     </row>
     <row r="8" spans="2:13" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>65</v>
+        <v>178</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E8" s="3">
         <v>45735</v>
@@ -4565,7 +4610,7 @@
         <v>54</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>18</v>
@@ -4574,7 +4619,7 @@
         <v>19</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>35</v>
@@ -4585,13 +4630,13 @@
     </row>
     <row r="9" spans="2:13" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>66</v>
+        <v>179</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E9" s="3">
         <v>45735</v>
@@ -4603,7 +4648,7 @@
         <v>54</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="I9" s="15" t="s">
         <v>18</v>
@@ -4612,7 +4657,7 @@
         <v>19</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>35</v>
@@ -4623,13 +4668,13 @@
     </row>
     <row r="10" spans="2:13" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>67</v>
+        <v>180</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E10" s="3">
         <v>45735</v>
@@ -4641,7 +4686,7 @@
         <v>54</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>18</v>
@@ -4650,24 +4695,24 @@
         <v>19</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="209.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>100</v>
+        <v>181</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E11" s="3">
         <v>45735</v>
@@ -4679,7 +4724,7 @@
         <v>54</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="I11" s="15" t="s">
         <v>18</v>
@@ -4688,7 +4733,7 @@
         <v>19</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>35</v>
@@ -4713,13 +4758,13 @@
     </row>
     <row r="13" spans="2:13" ht="167.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>67</v>
+        <v>180</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E13" s="3">
         <v>45735</v>
@@ -4728,10 +4773,10 @@
         <v>45736</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>18</v>
@@ -4740,7 +4785,7 @@
         <v>19</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>35</v>
@@ -5768,7 +5813,7 @@
     <row r="1" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D1" s="5"/>
       <c r="E1" s="5" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -5831,7 +5876,7 @@
         <v>54</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="I4" s="15" t="s">
         <v>18</v>
@@ -5854,7 +5899,7 @@
         <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>57</v>
@@ -5869,7 +5914,7 @@
         <v>54</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>18</v>
@@ -5907,7 +5952,7 @@
         <v>54</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="I6" s="15" t="s">
         <v>18</v>
@@ -5945,7 +5990,7 @@
         <v>54</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>18</v>
@@ -5983,7 +6028,7 @@
         <v>54</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="I8" s="15" t="s">
         <v>18</v>
@@ -6006,7 +6051,7 @@
         <v>66</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>74</v>
@@ -6021,7 +6066,7 @@
         <v>54</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>18</v>
@@ -6033,10 +6078,10 @@
         <v>75</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="230.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6059,7 +6104,7 @@
         <v>54</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I10" s="15" t="s">
         <v>18</v>
@@ -6096,7 +6141,7 @@
         <v>66</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>74</v>
@@ -6108,10 +6153,10 @@
         <v>45737</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>18</v>
@@ -7123,8 +7168,8 @@
   </sheetPr>
   <dimension ref="B1:N997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7149,7 +7194,7 @@
     <row r="1" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D1" s="5"/>
       <c r="E1" s="5" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -7219,7 +7264,7 @@
         <v>15</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>16</v>
@@ -7260,7 +7305,7 @@
         <v>15</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>16</v>
@@ -7301,7 +7346,7 @@
         <v>15</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
@@ -7342,7 +7387,7 @@
         <v>15</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>16</v>
@@ -7365,7 +7410,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>46</v>
@@ -7383,7 +7428,7 @@
         <v>15</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>16</v>
@@ -7406,7 +7451,7 @@
         <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>48</v>
@@ -7424,7 +7469,7 @@
         <v>17</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>18</v>
@@ -7447,7 +7492,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>51</v>
@@ -7465,7 +7510,7 @@
         <v>15</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>18</v>
@@ -7488,10 +7533,10 @@
         <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E11" s="3">
         <v>45735</v>
@@ -7506,7 +7551,7 @@
         <v>15</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>18</v>

--- a/Fases_de_desarrollo/04-Transicion/01- Pruebas/T01 - OSLO - Casos de Pruebas Integracion Testify.xlsx
+++ b/Fases_de_desarrollo/04-Transicion/01- Pruebas/T01 - OSLO - Casos de Pruebas Integracion Testify.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Proyecto\LDS\Testify\Fases_de_desarrollo\04-Transicion\01- Pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3CEDBD-1FFA-44E8-AF5E-579A341C2505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F42FC0-717D-4E73-8EE3-F3ACB1DBD848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" tabRatio="692" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" tabRatio="692" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Portada" sheetId="7" r:id="rId1"/>
@@ -2851,7 +2851,7 @@
   </sheetPr>
   <dimension ref="B1:M994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
@@ -4370,8 +4370,8 @@
   </sheetPr>
   <dimension ref="B1:M994"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5788,7 +5788,7 @@
   </sheetPr>
   <dimension ref="B1:M993"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -7168,7 +7168,7 @@
   </sheetPr>
   <dimension ref="B1:N997"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>

--- a/Fases_de_desarrollo/04-Transicion/01- Pruebas/T01 - OSLO - Casos de Pruebas Integracion Testify.xlsx
+++ b/Fases_de_desarrollo/04-Transicion/01- Pruebas/T01 - OSLO - Casos de Pruebas Integracion Testify.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Proyecto\LDS\Testify\Fases_de_desarrollo\04-Transicion\01- Pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F42FC0-717D-4E73-8EE3-F3ACB1DBD848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8555E7-1255-4691-8C79-A388A75DB06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" tabRatio="692" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" tabRatio="692" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Portada" sheetId="7" r:id="rId1"/>
@@ -105,16 +105,10 @@
     <t xml:space="preserve">Casos de Pruebas </t>
   </si>
   <si>
-    <t>2° Tanda de Casos de Uso</t>
-  </si>
-  <si>
     <t>Testify</t>
   </si>
   <si>
     <t>OSLO</t>
-  </si>
-  <si>
-    <t>Iteración N° 3, Fase Cierre</t>
   </si>
   <si>
     <t>CP18-01</t>
@@ -660,6 +654,12 @@
   </si>
   <si>
     <t>El resultado que se espera es que salga un mensaje de error que diga que el nombre de la iteración ya existe.</t>
+  </si>
+  <si>
+    <t>Fase Transición</t>
+  </si>
+  <si>
+    <t>1° Tanda de Casos de Uso</t>
   </si>
 </sst>
 </file>
@@ -1306,8 +1306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29AA2F3E-CDFF-4C79-AD35-CED339D9040D}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1408,7 +1408,7 @@
     <row r="9" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="B9" s="9" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -1430,7 +1430,7 @@
     <row r="11" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -1442,7 +1442,7 @@
     <row r="12" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="11" t="s">
-        <v>24</v>
+        <v>194</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -1454,7 +1454,7 @@
     <row r="13" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -2851,7 +2851,7 @@
   </sheetPr>
   <dimension ref="B1:M994"/>
   <sheetViews>
-    <sheetView zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
@@ -2876,7 +2876,7 @@
     <row r="1" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D1" s="5"/>
       <c r="E1" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -2921,13 +2921,13 @@
     </row>
     <row r="4" spans="2:13" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E4" s="3">
         <v>45736</v>
@@ -2936,10 +2936,10 @@
         <v>45737</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>18</v>
@@ -2948,10 +2948,10 @@
         <v>19</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>14</v>
@@ -2959,13 +2959,13 @@
     </row>
     <row r="5" spans="2:13" ht="105" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E5" s="3">
         <v>45736</v>
@@ -2974,10 +2974,10 @@
         <v>45737</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>18</v>
@@ -2986,10 +2986,10 @@
         <v>19</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>14</v>
@@ -2997,13 +2997,13 @@
     </row>
     <row r="6" spans="2:13" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E6" s="3">
         <v>45736</v>
@@ -3012,10 +3012,10 @@
         <v>45737</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>18</v>
@@ -3024,10 +3024,10 @@
         <v>19</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>14</v>
@@ -3035,13 +3035,13 @@
     </row>
     <row r="7" spans="2:13" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E7" s="3">
         <v>45736</v>
@@ -3050,10 +3050,10 @@
         <v>45737</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>18</v>
@@ -3062,10 +3062,10 @@
         <v>19</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>14</v>
@@ -3073,13 +3073,13 @@
     </row>
     <row r="8" spans="2:13" ht="183" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E8" s="3">
         <v>45736</v>
@@ -3088,10 +3088,10 @@
         <v>45737</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I8" s="15" t="s">
         <v>18</v>
@@ -3100,10 +3100,10 @@
         <v>19</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>14</v>
@@ -3111,13 +3111,13 @@
     </row>
     <row r="9" spans="2:13" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E9" s="3">
         <v>45736</v>
@@ -3126,10 +3126,10 @@
         <v>45737</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>18</v>
@@ -3138,10 +3138,10 @@
         <v>19</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>14</v>
@@ -3149,13 +3149,13 @@
     </row>
     <row r="10" spans="2:13" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E10" s="3">
         <v>45736</v>
@@ -3164,10 +3164,10 @@
         <v>45737</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>18</v>
@@ -3176,10 +3176,10 @@
         <v>19</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>14</v>
@@ -3187,13 +3187,13 @@
     </row>
     <row r="11" spans="2:13" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E11" s="3">
         <v>45736</v>
@@ -3202,10 +3202,10 @@
         <v>45737</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>18</v>
@@ -3214,10 +3214,10 @@
         <v>19</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>14</v>
@@ -3225,13 +3225,13 @@
     </row>
     <row r="12" spans="2:13" ht="186" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E12" s="3">
         <v>45736</v>
@@ -3240,10 +3240,10 @@
         <v>45737</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>18</v>
@@ -3252,24 +3252,24 @@
         <v>19</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M12" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="186" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E13" s="3">
         <v>45736</v>
@@ -3278,10 +3278,10 @@
         <v>45737</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>18</v>
@@ -3290,10 +3290,10 @@
         <v>19</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>14</v>
@@ -3315,13 +3315,13 @@
     </row>
     <row r="15" spans="2:13" ht="183" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E15" s="3">
         <v>45736</v>
@@ -3330,10 +3330,10 @@
         <v>45737</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>18</v>
@@ -3342,10 +3342,10 @@
         <v>19</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>14</v>
@@ -4370,7 +4370,7 @@
   </sheetPr>
   <dimension ref="B1:M994"/>
   <sheetViews>
-    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -4395,7 +4395,7 @@
     <row r="1" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D1" s="5"/>
       <c r="E1" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -4440,13 +4440,13 @@
     </row>
     <row r="4" spans="2:13" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E4" s="3">
         <v>45735</v>
@@ -4455,10 +4455,10 @@
         <v>45736</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I4" s="15" t="s">
         <v>18</v>
@@ -4467,10 +4467,10 @@
         <v>19</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>14</v>
@@ -4478,13 +4478,13 @@
     </row>
     <row r="5" spans="2:13" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E5" s="3">
         <v>45735</v>
@@ -4493,10 +4493,10 @@
         <v>45736</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>18</v>
@@ -4505,10 +4505,10 @@
         <v>19</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>14</v>
@@ -4516,13 +4516,13 @@
     </row>
     <row r="6" spans="2:13" ht="75" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E6" s="3">
         <v>45735</v>
@@ -4531,10 +4531,10 @@
         <v>45736</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I6" s="15" t="s">
         <v>18</v>
@@ -4543,10 +4543,10 @@
         <v>19</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>14</v>
@@ -4554,13 +4554,13 @@
     </row>
     <row r="7" spans="2:13" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E7" s="3">
         <v>45735</v>
@@ -4569,10 +4569,10 @@
         <v>45736</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I7" s="15" t="s">
         <v>18</v>
@@ -4581,10 +4581,10 @@
         <v>19</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>14</v>
@@ -4592,13 +4592,13 @@
     </row>
     <row r="8" spans="2:13" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E8" s="3">
         <v>45735</v>
@@ -4607,10 +4607,10 @@
         <v>45736</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>18</v>
@@ -4619,10 +4619,10 @@
         <v>19</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>14</v>
@@ -4630,13 +4630,13 @@
     </row>
     <row r="9" spans="2:13" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E9" s="3">
         <v>45735</v>
@@ -4645,10 +4645,10 @@
         <v>45736</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I9" s="15" t="s">
         <v>18</v>
@@ -4657,10 +4657,10 @@
         <v>19</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>14</v>
@@ -4668,13 +4668,13 @@
     </row>
     <row r="10" spans="2:13" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E10" s="3">
         <v>45735</v>
@@ -4683,10 +4683,10 @@
         <v>45736</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>18</v>
@@ -4695,24 +4695,24 @@
         <v>19</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="209.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E11" s="3">
         <v>45735</v>
@@ -4721,10 +4721,10 @@
         <v>45736</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I11" s="15" t="s">
         <v>18</v>
@@ -4733,10 +4733,10 @@
         <v>19</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M11" s="16" t="s">
         <v>14</v>
@@ -4758,13 +4758,13 @@
     </row>
     <row r="13" spans="2:13" ht="167.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E13" s="3">
         <v>45735</v>
@@ -4773,10 +4773,10 @@
         <v>45736</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>18</v>
@@ -4785,10 +4785,10 @@
         <v>19</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M13" s="16" t="s">
         <v>14</v>
@@ -5788,7 +5788,7 @@
   </sheetPr>
   <dimension ref="B1:M993"/>
   <sheetViews>
-    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -5813,7 +5813,7 @@
     <row r="1" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D1" s="5"/>
       <c r="E1" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -5858,13 +5858,13 @@
     </row>
     <row r="4" spans="2:13" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E4" s="3">
         <v>45735</v>
@@ -5873,10 +5873,10 @@
         <v>45736</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I4" s="15" t="s">
         <v>18</v>
@@ -5885,10 +5885,10 @@
         <v>19</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>14</v>
@@ -5896,13 +5896,13 @@
     </row>
     <row r="5" spans="2:13" ht="75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E5" s="3">
         <v>45735</v>
@@ -5911,10 +5911,10 @@
         <v>45736</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>18</v>
@@ -5923,10 +5923,10 @@
         <v>19</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>14</v>
@@ -5934,13 +5934,13 @@
     </row>
     <row r="6" spans="2:13" ht="180" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E6" s="3">
         <v>45735</v>
@@ -5949,10 +5949,10 @@
         <v>45736</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I6" s="15" t="s">
         <v>18</v>
@@ -5961,10 +5961,10 @@
         <v>19</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>14</v>
@@ -5972,13 +5972,13 @@
     </row>
     <row r="7" spans="2:13" ht="180" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E7" s="3">
         <v>45735</v>
@@ -5987,10 +5987,10 @@
         <v>45736</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>18</v>
@@ -5999,10 +5999,10 @@
         <v>19</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>14</v>
@@ -6010,13 +6010,13 @@
     </row>
     <row r="8" spans="2:13" ht="195" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E8" s="3">
         <v>45735</v>
@@ -6025,10 +6025,10 @@
         <v>45736</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I8" s="15" t="s">
         <v>18</v>
@@ -6037,10 +6037,10 @@
         <v>19</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>14</v>
@@ -6048,13 +6048,13 @@
     </row>
     <row r="9" spans="2:13" ht="180" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E9" s="3">
         <v>45735</v>
@@ -6063,10 +6063,10 @@
         <v>45736</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>18</v>
@@ -6075,24 +6075,24 @@
         <v>19</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="230.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E10" s="3">
         <v>45735</v>
@@ -6101,10 +6101,10 @@
         <v>45736</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I10" s="15" t="s">
         <v>18</v>
@@ -6113,10 +6113,10 @@
         <v>19</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>14</v>
@@ -6138,13 +6138,13 @@
     </row>
     <row r="12" spans="2:13" ht="210" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E12" s="3">
         <v>45736</v>
@@ -6153,10 +6153,10 @@
         <v>45737</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>18</v>
@@ -6165,10 +6165,10 @@
         <v>19</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>14</v>
@@ -7168,7 +7168,7 @@
   </sheetPr>
   <dimension ref="B1:N997"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
@@ -7194,7 +7194,7 @@
     <row r="1" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D1" s="5"/>
       <c r="E1" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -7243,13 +7243,13 @@
     </row>
     <row r="4" spans="2:14" ht="60" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E4" s="3">
         <v>45735</v>
@@ -7258,13 +7258,13 @@
         <v>45736</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>16</v>
@@ -7273,10 +7273,10 @@
         <v>13</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>14</v>
@@ -7284,13 +7284,13 @@
     </row>
     <row r="5" spans="2:14" ht="75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E5" s="3">
         <v>45735</v>
@@ -7299,13 +7299,13 @@
         <v>45736</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>16</v>
@@ -7314,10 +7314,10 @@
         <v>13</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>14</v>
@@ -7325,13 +7325,13 @@
     </row>
     <row r="6" spans="2:14" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E6" s="3">
         <v>45735</v>
@@ -7340,13 +7340,13 @@
         <v>45736</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
@@ -7355,10 +7355,10 @@
         <v>13</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>14</v>
@@ -7366,13 +7366,13 @@
     </row>
     <row r="7" spans="2:14" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E7" s="3">
         <v>45735</v>
@@ -7381,13 +7381,13 @@
         <v>45736</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>16</v>
@@ -7396,10 +7396,10 @@
         <v>13</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>14</v>
@@ -7407,13 +7407,13 @@
     </row>
     <row r="8" spans="2:14" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E8" s="3">
         <v>45735</v>
@@ -7422,13 +7422,13 @@
         <v>45736</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>16</v>
@@ -7437,10 +7437,10 @@
         <v>13</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>14</v>
@@ -7448,13 +7448,13 @@
     </row>
     <row r="9" spans="2:14" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E9" s="3">
         <v>45735</v>
@@ -7463,13 +7463,13 @@
         <v>45736</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>18</v>
@@ -7478,10 +7478,10 @@
         <v>19</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>14</v>
@@ -7489,13 +7489,13 @@
     </row>
     <row r="10" spans="2:14" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E10" s="3">
         <v>45735</v>
@@ -7504,13 +7504,13 @@
         <v>45736</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>18</v>
@@ -7519,10 +7519,10 @@
         <v>19</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>14</v>
@@ -7530,13 +7530,13 @@
     </row>
     <row r="11" spans="2:14" ht="171" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E11" s="3">
         <v>45735</v>
@@ -7545,13 +7545,13 @@
         <v>45736</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>18</v>
@@ -7560,10 +7560,10 @@
         <v>19</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>14</v>
